--- a/Template/CAIR_Template.xlsx
+++ b/Template/CAIR_Template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\styler\Documents\CAIR 2025\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\styler\Documents\CAIR 2025\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{211214BF-EF80-411F-85EE-4D67A89D779B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D91881ED-08F2-42AB-A3BF-38C6D1F31E16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22335" yWindow="750" windowWidth="28245" windowHeight="18855" activeTab="1" xr2:uid="{D0F8A80F-3FF2-4F81-9F5D-27301864ABD8}"/>
+    <workbookView xWindow="5520" yWindow="555" windowWidth="24450" windowHeight="18870" xr2:uid="{D0F8A80F-3FF2-4F81-9F5D-27301864ABD8}"/>
   </bookViews>
   <sheets>
     <sheet name="Columns Template" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="25">
   <si>
     <t>Student_ID</t>
   </si>
@@ -106,6 +106,12 @@
   </si>
   <si>
     <t>SSU:begins with NCC or NX, then dash, then 6 digits</t>
+  </si>
+  <si>
+    <t>Middle_Name</t>
+  </si>
+  <si>
+    <t>Hours_of_Participation</t>
   </si>
 </sst>
 </file>
@@ -511,10 +517,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A630C25-C151-4E30-99B4-CF2A3B620043}">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="A1:H1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -526,10 +532,9 @@
     <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -537,7 +542,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -549,10 +554,7 @@
         <v>7</v>
       </c>
       <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -564,7 +566,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C4AC448-2163-45A0-AB7A-8C9A66161606}">
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
